--- a/QA/testcases/EDockets/CASE/Deleting_Case.xlsx
+++ b/QA/testcases/EDockets/CASE/Deleting_Case.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="271">
   <si>
     <t>Step No</t>
   </si>
@@ -366,9 +366,6 @@
     <t>Should wait</t>
   </si>
   <si>
-    <t>CLIENT/MATTER_OPEN_ICON</t>
-  </si>
-  <si>
     <t>RobotEnter</t>
   </si>
   <si>
@@ -390,590 +387,464 @@
     <t>Frame should be switched to home page</t>
   </si>
   <si>
-    <t>CREATE_NEW_CLIENT_MATER_LINK</t>
-  </si>
-  <si>
-    <t>Verify client matter link</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Click on client matter link</t>
-  </si>
-  <si>
-    <t>NEW_CLIENT_WINDOW_FRAME</t>
-  </si>
-  <si>
-    <t>Switch the frame to new client</t>
-  </si>
-  <si>
-    <t>Frame should be switched to new client</t>
-  </si>
-  <si>
-    <t>NEW_CLIENT_PAGE_TITLE</t>
-  </si>
-  <si>
-    <t>Verify new client page title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client page title should be verified </t>
-  </si>
-  <si>
     <t>Waiting is done successfully</t>
   </si>
   <si>
     <t>GetAttributeValue</t>
   </si>
   <si>
-    <t>NEW_CLIENT_ID</t>
-  </si>
-  <si>
-    <t>Retrieve client id</t>
-  </si>
-  <si>
-    <t>Client id must be retrieved</t>
-  </si>
-  <si>
-    <t>NEW_CLIENT_NAME</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Type client name</t>
-  </si>
-  <si>
-    <t>client name must be typed</t>
-  </si>
-  <si>
-    <t>NEW_CLIENT_NOTES</t>
-  </si>
-  <si>
-    <t>ClientNote</t>
-  </si>
-  <si>
-    <t>Type client notes</t>
-  </si>
-  <si>
-    <t>Client notes must be typed</t>
-  </si>
-  <si>
-    <t>NEW_CLIENT_STATUS</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Click on Filter Option Active</t>
-  </si>
-  <si>
     <t>Filter Option Active should be clicked</t>
   </si>
   <si>
-    <t>BUTTON_SAVE</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Click on save button</t>
   </si>
   <si>
     <t>Save button should be clicked</t>
   </si>
   <si>
-    <t>NEW_MATTER_PAGE_TITLE</t>
-  </si>
-  <si>
-    <t>Verify matter page title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matter should be verified </t>
-  </si>
-  <si>
-    <t>NEW_MATTER_ID</t>
-  </si>
-  <si>
-    <t>Retrieve matter id</t>
-  </si>
-  <si>
-    <t>Matter id must be retrieved</t>
-  </si>
-  <si>
-    <t>NEW_MATTER_NAME</t>
-  </si>
-  <si>
-    <t>Matter</t>
-  </si>
-  <si>
-    <t>Type matter name</t>
-  </si>
-  <si>
-    <t>Matter name must be typed</t>
-  </si>
-  <si>
-    <t>NEW_MATTER_NOTES</t>
-  </si>
-  <si>
-    <t>MatterNote</t>
-  </si>
-  <si>
-    <t>Type matter notes</t>
-  </si>
-  <si>
-    <t>matter notes must be typed</t>
-  </si>
-  <si>
-    <t>NEW_MATTER_OFFICE</t>
-  </si>
-  <si>
-    <t>Selenium Office</t>
-  </si>
-  <si>
-    <t>Click on Filter Option Selenium office</t>
-  </si>
-  <si>
-    <t>Filter Option Selenium office should be clicked</t>
-  </si>
-  <si>
-    <t>NEW_MATTER_STATUS</t>
+    <t>EDocketsLogin</t>
+  </si>
+  <si>
+    <t>CREATE_NEW_CASE_LINK</t>
+  </si>
+  <si>
+    <t>Window handle in new case</t>
+  </si>
+  <si>
+    <t>Window handle Should be done for new case</t>
+  </si>
+  <si>
+    <t>NEW_CASE_TITLE</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>COURT_RULE_SET_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Clear and Select filter option</t>
+  </si>
+  <si>
+    <t>Court set rule must be selected</t>
+  </si>
+  <si>
+    <t>JURISDICTION_TEXTBOX</t>
+  </si>
+  <si>
+    <t>Alabama Circuit Court 12th Circuit Coffee</t>
+  </si>
+  <si>
+    <t>Jurisdiction must be selected</t>
+  </si>
+  <si>
+    <t>TIME_ZONE</t>
+  </si>
+  <si>
+    <t>CST</t>
+  </si>
+  <si>
+    <t>Select filter option</t>
+  </si>
+  <si>
+    <t>Time zone must be selected</t>
+  </si>
+  <si>
+    <t>CASE_TYPE</t>
+  </si>
+  <si>
+    <t>Arbitration</t>
+  </si>
+  <si>
+    <t>Case type must be selected</t>
+  </si>
+  <si>
+    <t>CASE_STATUS</t>
+  </si>
+  <si>
+    <t>ClickSaveButton</t>
+  </si>
+  <si>
+    <t>NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>CLIENTNAME_SEARCH_PAGE</t>
+  </si>
+  <si>
+    <t>Enter should be  pressed</t>
+  </si>
+  <si>
+    <t>Login the application</t>
+  </si>
+  <si>
+    <t>Application should be logged in</t>
+  </si>
+  <si>
+    <t>Enter should be pressed</t>
+  </si>
+  <si>
+    <t>SwitchToSecondWindow</t>
+  </si>
+  <si>
+    <t>ATTORNEY_SEARCH_ICON</t>
+  </si>
+  <si>
+    <t>Switch window to attorney search</t>
+  </si>
+  <si>
+    <t>Window should be switched to attorney search</t>
+  </si>
+  <si>
+    <t>ATTORNEY_PAGE_TITLE</t>
+  </si>
+  <si>
+    <t>Verify Attorney page title</t>
+  </si>
+  <si>
+    <t>Attorney page titleshould be verified</t>
+  </si>
+  <si>
+    <t>Retrieve Attorney page title</t>
+  </si>
+  <si>
+    <t>Attorney page title should be retrieved</t>
+  </si>
+  <si>
+    <t>ATTORNEY_SEARCH_TEXT_BOX</t>
+  </si>
+  <si>
+    <t>Selenium Attorney</t>
+  </si>
+  <si>
+    <t>Type Attorney name</t>
+  </si>
+  <si>
+    <t>Attorney name should be typed</t>
+  </si>
+  <si>
+    <t>SEARCHED_ATTORNEY_DETAILS,SEARCHED_ATTORNEY_DETAILS_1</t>
+  </si>
+  <si>
+    <t>Verify Attorney detail</t>
+  </si>
+  <si>
+    <t>Attorney detail should be verified</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on Attorney text</t>
+  </si>
+  <si>
+    <t>Attorney text should be clicked</t>
+  </si>
+  <si>
+    <t>Switch to Second window</t>
+  </si>
+  <si>
+    <t>SELECTED_LOOKUP_NAME,SELECTED_LOOKUP_NAME_1</t>
+  </si>
+  <si>
+    <t>Verify Attorney name</t>
+  </si>
+  <si>
+    <t>Attorney name should be verified</t>
+  </si>
+  <si>
+    <t>Retrieve Attorney name</t>
+  </si>
+  <si>
+    <t>Attorney name should be retrieved</t>
+  </si>
+  <si>
+    <t>ATTORNEY_ROLE</t>
+  </si>
+  <si>
+    <t>Defense Attorney</t>
+  </si>
+  <si>
+    <t>Click on Filter Option Role</t>
+  </si>
+  <si>
+    <t>Filter Option Role should be clicked</t>
+  </si>
+  <si>
+    <t>ATTORNEY_TITLE</t>
+  </si>
+  <si>
+    <t>Senior Partner</t>
+  </si>
+  <si>
+    <t>Click on Filter Option title</t>
+  </si>
+  <si>
+    <t>Filter Option title should be clicked</t>
+  </si>
+  <si>
+    <t>ATTORNEY_STATUS</t>
+  </si>
+  <si>
+    <t>Busy</t>
+  </si>
+  <si>
+    <t>Click on Filter Option Status</t>
+  </si>
+  <si>
+    <t>Filter Option Busy should be clicked</t>
+  </si>
+  <si>
+    <t>ATTORNEY_NO_RECORDS</t>
+  </si>
+  <si>
+    <t>Verify Attorney records</t>
+  </si>
+  <si>
+    <t>Attorney records should be verified</t>
+  </si>
+  <si>
+    <t>Retrieve Attorney records</t>
+  </si>
+  <si>
+    <t>Attorney records should be retrieved</t>
+  </si>
+  <si>
+    <t>ADD_ATTORNEY_BUTTON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Click on add Attorney button</t>
+  </si>
+  <si>
+    <t>Add Attorney button should be clicked</t>
+  </si>
+  <si>
+    <t>ATTORNEY_ADDED_TO_GRID,ATTORNEY_ADDED_TO_GRID_1</t>
+  </si>
+  <si>
+    <t>Attorney nameshould be verified</t>
+  </si>
+  <si>
+    <t>SAVE_BUTTON</t>
+  </si>
+  <si>
+    <t>Second window should be switched</t>
+  </si>
+  <si>
+    <t>NEW_CASE_ID</t>
+  </si>
+  <si>
+    <t>Retrieve Case id</t>
+  </si>
+  <si>
+    <t>Case id must be retrieved</t>
+  </si>
+  <si>
+    <t>CALAIC CALIFORNIA SUPERIOR COURT, LOS ANGELES COUNTY</t>
+  </si>
+  <si>
+    <t>COURTRULESET_LABEL</t>
+  </si>
+  <si>
+    <t>CLIENTDETAIL_PAGE_IFRAME,IFRAME_END</t>
+  </si>
+  <si>
+    <t>CLIENT_FRAME_PAGE</t>
+  </si>
+  <si>
+    <t>CASEID_CLIENTDETAIL_PAGE</t>
+  </si>
+  <si>
+    <t>SplitDetails</t>
+  </si>
+  <si>
+    <t>CLIENT_MATTER_CLIENT_TEXTBOX</t>
+  </si>
+  <si>
+    <t>CLIENT_MATTER_MATTER_TEXTBOX</t>
+  </si>
+  <si>
+    <t>LOADING_ELEMENT_ENABLED</t>
+  </si>
+  <si>
+    <t>LOADING_ELEMENT_DISABLED</t>
+  </si>
+  <si>
+    <t>CLIENT_NAME_CASEPAGE</t>
+  </si>
+  <si>
+    <t>JURISDICTION_LABEL</t>
+  </si>
+  <si>
+    <t>MATTERNAME_CASEPAGE</t>
+  </si>
+  <si>
+    <t>CASE_OPEN_BUTTON</t>
+  </si>
+  <si>
+    <t>babu@edocketspro.com,America1*</t>
+  </si>
+  <si>
+    <t>11,79</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_ICON</t>
+  </si>
+  <si>
+    <t>OR_END1</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_POPUP_FRAME</t>
+  </si>
+  <si>
+    <t>DELETE_CASE_POPUP_YES_BUTTON</t>
+  </si>
+  <si>
+    <t>CaseNotFound.PNG</t>
+  </si>
+  <si>
+    <t>SikuliVerifyElement</t>
+  </si>
+  <si>
+    <t>Page should be refreshed</t>
+  </si>
+  <si>
+    <t>Type Case Title</t>
+  </si>
+  <si>
+    <t>Case title should be typed</t>
+  </si>
+  <si>
+    <t>Type Client  id</t>
+  </si>
+  <si>
+    <t>Client id should be typed</t>
+  </si>
+  <si>
+    <t>Click on Matter id textbox</t>
+  </si>
+  <si>
+    <t>Matter id textbox should be clicked</t>
+  </si>
+  <si>
+    <t>Wait for element until present</t>
+  </si>
+  <si>
+    <t>Should wait until element present</t>
+  </si>
+  <si>
+    <t>Wait for element until not present</t>
+  </si>
+  <si>
+    <t>Should wait until element not present</t>
+  </si>
+  <si>
+    <t>Retrieve Client name</t>
+  </si>
+  <si>
+    <t>Client name should be retrieved</t>
+  </si>
+  <si>
+    <t>Click on Jurisdiction label</t>
+  </si>
+  <si>
+    <t>Jurisdiction label should be clicked</t>
+  </si>
+  <si>
+    <t>Retrieve Matter name</t>
+  </si>
+  <si>
+    <t>Matter name should be retrieved</t>
+  </si>
+  <si>
+    <t>Click on Court rule set</t>
+  </si>
+  <si>
+    <t>Court set rule must be clicked</t>
+  </si>
+  <si>
+    <t>Switch to Main window</t>
+  </si>
+  <si>
+    <t>Should be switched to Main window</t>
+  </si>
+  <si>
+    <t>Click on Open button</t>
+  </si>
+  <si>
+    <t>Open button should be clicked</t>
+  </si>
+  <si>
+    <t>Switch to default content</t>
+  </si>
+  <si>
+    <t>Should be switched to Default content</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details page</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details page</t>
+  </si>
+  <si>
+    <t>Switch frame to Case details Content</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Case details Content</t>
+  </si>
+  <si>
+    <t>Split the details</t>
+  </si>
+  <si>
+    <t>Details should be splitted</t>
+  </si>
+  <si>
+    <t>Check strings are matched</t>
+  </si>
+  <si>
+    <t>Strings should be matched</t>
+  </si>
+  <si>
+    <t>Click on Delete icon</t>
+  </si>
+  <si>
+    <t>Delete icon should be clicked</t>
+  </si>
+  <si>
+    <t>Switch frame to Delete details popup</t>
+  </si>
+  <si>
+    <t>Frame should be switched to Delete details popup</t>
+  </si>
+  <si>
+    <t>Click on yes button</t>
+  </si>
+  <si>
+    <t>Yes button should be clicked</t>
   </si>
   <si>
     <t>Switch to default frame</t>
   </si>
   <si>
-    <t>Default frame should be switched successfully</t>
-  </si>
-  <si>
-    <t>Switch frame to home page</t>
-  </si>
-  <si>
-    <t>Frame should be switched to home page successfully</t>
-  </si>
-  <si>
-    <t>EDocketsLogin</t>
-  </si>
-  <si>
-    <t>CLIENT_SEARCH_ICON</t>
-  </si>
-  <si>
-    <t>CREATE_NEW_CASE_LINK</t>
-  </si>
-  <si>
-    <t>Window handle in new case</t>
-  </si>
-  <si>
-    <t>Window handle Should be done for new case</t>
-  </si>
-  <si>
-    <t>NEW_CASE_TITLE</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Type Product name</t>
-  </si>
-  <si>
-    <t>Product name must be typed</t>
-  </si>
-  <si>
-    <t>COURT_RULE_SET_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Clear and Select filter option</t>
-  </si>
-  <si>
-    <t>Court set rule must be selected</t>
-  </si>
-  <si>
-    <t>JURISDICTION_TEXTBOX</t>
-  </si>
-  <si>
-    <t>Alabama Circuit Court 12th Circuit Coffee</t>
-  </si>
-  <si>
-    <t>Jurisdiction must be selected</t>
-  </si>
-  <si>
-    <t>TIME_ZONE</t>
-  </si>
-  <si>
-    <t>CST</t>
-  </si>
-  <si>
-    <t>Select filter option</t>
-  </si>
-  <si>
-    <t>Time zone must be selected</t>
-  </si>
-  <si>
-    <t>CASE_TYPE</t>
-  </si>
-  <si>
-    <t>Arbitration</t>
-  </si>
-  <si>
-    <t>Case type must be selected</t>
-  </si>
-  <si>
-    <t>CASE_STATUS</t>
-  </si>
-  <si>
-    <t>ClickSaveButton</t>
-  </si>
-  <si>
-    <t>NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>CLIENTNAME_SEARCH_PAGE</t>
-  </si>
-  <si>
-    <t>Type Client name</t>
-  </si>
-  <si>
-    <t>Client name should be typed</t>
-  </si>
-  <si>
-    <t>Click on search icon</t>
-  </si>
-  <si>
-    <t>Search icon should be clicked</t>
-  </si>
-  <si>
-    <t>Click on open icon</t>
-  </si>
-  <si>
-    <t>Open icon should be clicked</t>
-  </si>
-  <si>
-    <t>Enter should be  pressed</t>
-  </si>
-  <si>
-    <t>Login the application</t>
-  </si>
-  <si>
-    <t>Application should be logged in</t>
-  </si>
-  <si>
-    <t>Enter should be pressed</t>
-  </si>
-  <si>
-    <t>Click on id</t>
-  </si>
-  <si>
-    <t>Id should be clicked</t>
-  </si>
-  <si>
-    <t>MATTER_SEARCH_ICON</t>
-  </si>
-  <si>
-    <t>SwitchToSecondWindow</t>
-  </si>
-  <si>
-    <t>ATTORNEY_SEARCH_ICON</t>
-  </si>
-  <si>
-    <t>Switch window to attorney search</t>
-  </si>
-  <si>
-    <t>Window should be switched to attorney search</t>
-  </si>
-  <si>
-    <t>ATTORNEY_PAGE_TITLE</t>
-  </si>
-  <si>
-    <t>Verify Attorney page title</t>
-  </si>
-  <si>
-    <t>Attorney page titleshould be verified</t>
-  </si>
-  <si>
-    <t>Retrieve Attorney page title</t>
-  </si>
-  <si>
-    <t>Attorney page title should be retrieved</t>
-  </si>
-  <si>
-    <t>ATTORNEY_SEARCH_TEXT_BOX</t>
-  </si>
-  <si>
-    <t>Selenium Attorney</t>
-  </si>
-  <si>
-    <t>Type Attorney name</t>
-  </si>
-  <si>
-    <t>Attorney name should be typed</t>
-  </si>
-  <si>
-    <t>SEARCHED_ATTORNEY_DETAILS,SEARCHED_ATTORNEY_DETAILS_1</t>
-  </si>
-  <si>
-    <t>Verify Attorney detail</t>
-  </si>
-  <si>
-    <t>Attorney detail should be verified</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Click on Attorney text</t>
-  </si>
-  <si>
-    <t>Attorney text should be clicked</t>
-  </si>
-  <si>
-    <t>Switch to Second window</t>
-  </si>
-  <si>
-    <t>SELECTED_LOOKUP_NAME,SELECTED_LOOKUP_NAME_1</t>
-  </si>
-  <si>
-    <t>Verify Attorney name</t>
-  </si>
-  <si>
-    <t>Attorney name should be verified</t>
-  </si>
-  <si>
-    <t>Retrieve Attorney name</t>
-  </si>
-  <si>
-    <t>Attorney name should be retrieved</t>
-  </si>
-  <si>
-    <t>ATTORNEY_ROLE</t>
-  </si>
-  <si>
-    <t>Defense Attorney</t>
-  </si>
-  <si>
-    <t>Click on Filter Option Role</t>
-  </si>
-  <si>
-    <t>Filter Option Role should be clicked</t>
-  </si>
-  <si>
-    <t>ATTORNEY_TITLE</t>
-  </si>
-  <si>
-    <t>Senior Partner</t>
-  </si>
-  <si>
-    <t>Click on Filter Option title</t>
-  </si>
-  <si>
-    <t>Filter Option title should be clicked</t>
-  </si>
-  <si>
-    <t>ATTORNEY_STATUS</t>
-  </si>
-  <si>
-    <t>Busy</t>
-  </si>
-  <si>
-    <t>Click on Filter Option Status</t>
-  </si>
-  <si>
-    <t>Filter Option Busy should be clicked</t>
-  </si>
-  <si>
-    <t>ATTORNEY_NO_RECORDS</t>
-  </si>
-  <si>
-    <t>Verify Attorney records</t>
-  </si>
-  <si>
-    <t>Attorney records should be verified</t>
-  </si>
-  <si>
-    <t>Retrieve Attorney records</t>
-  </si>
-  <si>
-    <t>Attorney records should be retrieved</t>
-  </si>
-  <si>
-    <t>ADD_ATTORNEY_BUTTON</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Click on add Attorney button</t>
-  </si>
-  <si>
-    <t>Add Attorney button should be clicked</t>
-  </si>
-  <si>
-    <t>ATTORNEY_ADDED_TO_GRID,ATTORNEY_ADDED_TO_GRID_1</t>
-  </si>
-  <si>
-    <t>Attorney nameshould be verified</t>
-  </si>
-  <si>
-    <t>SAVE_BUTTON</t>
-  </si>
-  <si>
-    <t>Switch to first window</t>
-  </si>
-  <si>
-    <t>Second window should be switched</t>
-  </si>
-  <si>
-    <t>First window should be switched</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client matter link should be verified </t>
-  </si>
-  <si>
-    <t>Client matter link should be clicked</t>
-  </si>
-  <si>
-    <t>Click on save button</t>
-  </si>
-  <si>
-    <t>NEW_CASE_ID</t>
-  </si>
-  <si>
-    <t>Retrieve Case id</t>
-  </si>
-  <si>
-    <t>Case id must be retrieved</t>
-  </si>
-  <si>
-    <t>CALAIC CALIFORNIA SUPERIOR COURT, LOS ANGELES COUNTY</t>
-  </si>
-  <si>
-    <t>Save and Close button should be clicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on Save and Close button </t>
-  </si>
-  <si>
-    <t>SAVE&amp;CLOSE_BUTTON_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>CREATEEVENT_POPUP_OK_BUTTON</t>
-  </si>
-  <si>
-    <t>CREATEEVENT_POPUP_FRAME</t>
-  </si>
-  <si>
-    <t>Create Event should be clicked</t>
-  </si>
-  <si>
-    <t>Click on Create Events</t>
-  </si>
-  <si>
-    <t>CREATEEVENT_BUTTON_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Triggertype should be typed</t>
-  </si>
-  <si>
-    <t>Type Triggertype</t>
-  </si>
-  <si>
-    <t>00450 Arbitration--Award Filed</t>
-  </si>
-  <si>
-    <t>TRIGGERTYPE_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Matter details must be retrieved</t>
-  </si>
-  <si>
-    <t>Retrieve Matter details</t>
-  </si>
-  <si>
-    <t>MATTERDETAIL_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Client details must be retrieved</t>
-  </si>
-  <si>
-    <t>Retrieve Client details</t>
-  </si>
-  <si>
-    <t>CLIENTDETAIL_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Case details must be retrieved</t>
-  </si>
-  <si>
-    <t>Retrieve Case details</t>
-  </si>
-  <si>
-    <t>CASEDETAIL_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Date should be clicked</t>
-  </si>
-  <si>
-    <t>Click on date</t>
-  </si>
-  <si>
-    <t>TRIGGERDATE_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>Calendar icon should be clicked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on calendar icon </t>
-  </si>
-  <si>
-    <t>TRIGGERCALENDARICON_NEWDOCKET_PAGE</t>
-  </si>
-  <si>
-    <t>GetNewWindow</t>
-  </si>
-  <si>
-    <t>New Docket should be clicked</t>
-  </si>
-  <si>
-    <t>Click on New Docket</t>
-  </si>
-  <si>
-    <t>NewDocket.PNG</t>
-  </si>
-  <si>
-    <t>COURTRULESET_LABEL</t>
-  </si>
-  <si>
-    <t>CLIENTID_SEARCH_PAGE,OR_END</t>
-  </si>
-  <si>
-    <t>Switch to main window</t>
-  </si>
-  <si>
-    <t>Should be switched to main window</t>
-  </si>
-  <si>
-    <t>Switch frame to create event popup</t>
-  </si>
-  <si>
-    <t>Frame should be switched to Create event popup</t>
-  </si>
-  <si>
-    <t>Click on Ok button</t>
-  </si>
-  <si>
-    <t>Ok button should be clicked</t>
-  </si>
-  <si>
-    <t>CLIENTDETAIL_PAGE_IFRAME,IFRAME_END</t>
-  </si>
-  <si>
-    <t>CLIENT_FRAME_PAGE</t>
-  </si>
-  <si>
-    <t>CASEID_CLIENTDETAIL_PAGE</t>
-  </si>
-  <si>
-    <t>CLIENTID_CLIENTDETAIL_PAGE</t>
-  </si>
-  <si>
-    <t>MATTERID_CLIENTDETAIL_PAGE</t>
-  </si>
-  <si>
-    <t>SplitDetails</t>
+    <t>Frame should be switched to default Case page</t>
+  </si>
+  <si>
+    <t>Type Case id</t>
+  </si>
+  <si>
+    <t>Case id should be typed</t>
+  </si>
+  <si>
+    <t>Verify element is present</t>
+  </si>
+  <si>
+    <t>Element should be presented</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -993,6 +864,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1015,8 +887,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1053,10 +932,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1069,17 +952,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -1161,7 +1041,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H142" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:H98" totalsRowShown="0">
   <tableColumns count="8">
     <tableColumn id="2" name="Step No" dataDxfId="2"/>
     <tableColumn id="8" name="Action"/>
@@ -1449,7 +1329,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1457,10 +1337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="E76" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1534,7 +1414,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -1543,16 +1423,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="16" t="s">
+        <v>218</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="H4" s="2"/>
     </row>
@@ -1561,7 +1443,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="7"/>
@@ -1570,7 +1452,7 @@
         <v>81</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="H5" s="2"/>
     </row>
@@ -1584,8 +1466,12 @@
       <c r="C6" s="3"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
@@ -1613,19 +1499,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1633,18 +1519,20 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9">
-        <v>2</v>
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="H9" s="2"/>
     </row>
@@ -1652,41 +1540,42 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>118</v>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>121</v>
+        <v>130</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>227</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2"/>
     </row>
@@ -1694,100 +1583,110 @@
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>16</v>
+      <c r="B12" t="s">
+        <v>121</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>202</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="11">
+        <v>347</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>61</v>
+      <c r="B14" t="s">
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>124</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>232</v>
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>127</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E15" s="11"/>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16">
-        <v>3</v>
-      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="G16" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1796,43 +1695,38 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>238</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1841,41 +1735,41 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8">
       <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>140</v>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20">
+        <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1884,60 +1778,63 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>215</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>112</v>
+        <v>240</v>
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>54</v>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>144</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E22" s="11"/>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s">
-        <v>146</v>
+        <v>234</v>
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23">
-        <v>1</v>
-      </c>
+      <c r="B23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" s="11"/>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="G23" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1945,20 +1842,18 @@
       <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>147</v>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24">
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>264</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1966,65 +1861,63 @@
       <c r="A25" s="6">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>29</v>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>150</v>
+        <v>216</v>
       </c>
       <c r="F25" t="s">
-        <v>151</v>
+        <v>241</v>
       </c>
       <c r="G25" t="s">
-        <v>152</v>
+        <v>242</v>
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>131</v>
+      <c r="B26" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="F26" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="G26" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8">
       <c r="A27" s="6">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>157</v>
-      </c>
       <c r="F27" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -2033,60 +1926,62 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8">
       <c r="A29" s="6">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>161</v>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29">
+        <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="10"/>
-      <c r="E30">
-        <v>1</v>
+      <c r="B30" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -2095,22 +1990,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E31" t="s">
-        <v>165</v>
+      <c r="D31" s="12" t="s">
+        <v>205</v>
       </c>
       <c r="F31" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>244</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -2123,13 +2015,13 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
         <v>36</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -2144,16 +2036,16 @@
         <v>6</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -2166,13 +2058,13 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>36</v>
       </c>
       <c r="G34" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -2180,20 +2072,23 @@
       <c r="A35" s="6">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>16</v>
+      <c r="B35" t="s">
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>143</v>
       </c>
       <c r="F35" t="s">
-        <v>264</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -2212,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -2220,15 +2115,23 @@
       <c r="A37" s="6">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="12"/>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E37" t="s">
+        <v>122</v>
+      </c>
       <c r="F37" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="G37" t="s">
-        <v>170</v>
+        <v>123</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -2236,20 +2139,18 @@
       <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>118</v>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38">
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -2258,21 +2159,21 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="F39" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
-      </c>
-      <c r="H39" s="9"/>
+        <v>125</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="6">
@@ -2283,13 +2184,13 @@
       </c>
       <c r="D40" s="10"/>
       <c r="E40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -2298,14 +2199,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D41" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F41" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="G41" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -2313,20 +2219,18 @@
       <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>115</v>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42">
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -2335,17 +2239,19 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="G43" t="s">
-        <v>112</v>
+        <v>159</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -2354,38 +2260,43 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G44" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="6">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>36</v>
-      </c>
-      <c r="D45" s="10"/>
-      <c r="E45">
-        <v>2</v>
+      <c r="B45" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>163</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>164</v>
       </c>
       <c r="G45" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -2393,20 +2304,18 @@
       <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>175</v>
+      <c r="B46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46">
+        <v>3</v>
       </c>
       <c r="F46" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -2415,41 +2324,35 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>149</v>
       </c>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
+    <row r="48" spans="1:8">
       <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>179</v>
+      <c r="B48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="10"/>
+      <c r="E48">
+        <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="H48" s="2"/>
     </row>
@@ -2458,43 +2361,46 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>265</v>
+        <v>166</v>
       </c>
       <c r="F49" t="s">
-        <v>266</v>
+        <v>167</v>
       </c>
       <c r="G49" t="s">
-        <v>267</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75">
+        <v>168</v>
+      </c>
+      <c r="H49" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>107</v>
+      <c r="B50" t="s">
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E50" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>169</v>
       </c>
       <c r="G50" t="s">
-        <v>202</v>
-      </c>
-      <c r="H50" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="H50" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="6">
@@ -2505,7 +2411,7 @@
       </c>
       <c r="D51" s="10"/>
       <c r="E51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>36</v>
@@ -2515,45 +2421,38 @@
       </c>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
+    <row r="52" spans="1:8">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="D52" s="14"/>
       <c r="F52" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="G52" t="s">
         <v>200</v>
       </c>
-      <c r="H52" s="2">
-        <v>17</v>
-      </c>
+      <c r="H52" s="9"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>205</v>
+        <v>36</v>
+      </c>
+      <c r="D53" s="10"/>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>120</v>
       </c>
       <c r="H53" s="2"/>
     </row>
@@ -2562,41 +2461,45 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" s="10"/>
-      <c r="E54">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="G54" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="H54" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="6">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>25</v>
+      <c r="B55" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>301</v>
+        <v>31</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="H55" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2604,17 +2507,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D56" s="10"/>
-      <c r="E56">
-        <v>3</v>
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E56" t="s">
+        <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
       <c r="G56" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="H56" s="2"/>
     </row>
@@ -2622,15 +2530,18 @@
       <c r="A57" s="6">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D57" s="15"/>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+      <c r="D57" s="10"/>
+      <c r="E57">
+        <v>2</v>
+      </c>
       <c r="F57" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="H57" s="2"/>
     </row>
@@ -2638,20 +2549,23 @@
       <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>107</v>
+      <c r="B58" t="s">
+        <v>54</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>211</v>
+      <c r="D58" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E58" t="s">
+        <v>182</v>
       </c>
       <c r="F58" t="s">
-        <v>230</v>
+        <v>183</v>
       </c>
       <c r="G58" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H58" s="2"/>
     </row>
@@ -2664,55 +2578,56 @@
       </c>
       <c r="D59" s="10"/>
       <c r="E59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
+    <row r="60" spans="1:8">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
       </c>
-      <c r="D60" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="11"/>
+      <c r="D60" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E60" t="s">
+        <v>186</v>
+      </c>
       <c r="F60" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
-      </c>
-      <c r="H60" s="2">
-        <v>26</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>205</v>
+        <v>36</v>
+      </c>
+      <c r="D61" s="10"/>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>120</v>
       </c>
       <c r="H61" s="2"/>
     </row>
@@ -2721,17 +2636,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="10"/>
-      <c r="E62">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="H62" s="2"/>
     </row>
@@ -2739,62 +2656,60 @@
       <c r="A63" s="6">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>25</v>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" s="14" t="s">
-        <v>301</v>
+      <c r="D63" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G63" t="s">
-        <v>210</v>
-      </c>
-      <c r="H63" s="2">
-        <v>26</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D64" s="15"/>
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>194</v>
+      </c>
       <c r="F64" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>260</v>
+        <v>196</v>
       </c>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75">
+    <row r="65" spans="1:8">
       <c r="A65" s="6">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>268</v>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="10"/>
+      <c r="E65">
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>183</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="H65" s="2"/>
     </row>
@@ -2803,32 +2718,42 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="D66" s="10"/>
-      <c r="E66">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>31</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>197</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="H66" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="6">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>300</v>
+        <v>9</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F67" t="s">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
       </c>
       <c r="H67" s="2"/>
     </row>
@@ -2841,7 +2766,7 @@
       </c>
       <c r="D68" s="10"/>
       <c r="E68">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
         <v>36</v>
@@ -2851,27 +2776,19 @@
       </c>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75">
+    <row r="69" spans="1:8">
       <c r="A69" s="6">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>186</v>
-      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="7"/>
       <c r="F69" t="s">
-        <v>183</v>
+        <v>245</v>
       </c>
       <c r="G69" t="s">
-        <v>187</v>
+        <v>246</v>
       </c>
       <c r="H69" s="2"/>
     </row>
@@ -2879,14 +2796,20 @@
       <c r="A70" s="6">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>300</v>
+        <v>9</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
       </c>
       <c r="H70" s="2"/>
     </row>
@@ -2899,13 +2822,13 @@
       </c>
       <c r="D71" s="10"/>
       <c r="E71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H71" s="2"/>
     </row>
@@ -2913,23 +2836,20 @@
       <c r="A72" s="6">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>54</v>
+      <c r="B72" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E72" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="F72" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="G72" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="H72" s="2"/>
     </row>
@@ -2938,41 +2858,42 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
-      </c>
-      <c r="D73" s="10"/>
-      <c r="E73">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="H73" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="6">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>54</v>
+      <c r="B74" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="E74" t="s">
-        <v>193</v>
+        <v>9</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="F74" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="G74" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="H74" s="2"/>
     </row>
@@ -2985,13 +2906,13 @@
       </c>
       <c r="D75" s="10"/>
       <c r="E75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
         <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="H75" s="2"/>
     </row>
@@ -3000,22 +2921,14 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="E76" t="s">
-        <v>144</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D76" s="8"/>
       <c r="F76" t="s">
-        <v>190</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="H76" s="2"/>
     </row>
@@ -3023,39 +2936,43 @@
       <c r="A77" s="6">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D77" s="10"/>
-      <c r="E77">
-        <v>2</v>
+      <c r="B77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="G77" t="s">
-        <v>130</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="H77" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="F78" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="G78" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="H78" s="2"/>
     </row>
@@ -3064,17 +2981,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="10"/>
-      <c r="E79">
-        <v>6</v>
+        <v>34</v>
+      </c>
+      <c r="C79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="G79" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="H79" s="2"/>
     </row>
@@ -3082,105 +3001,91 @@
       <c r="A80" s="6">
         <v>79</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C80" t="s">
-        <v>6</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>213</v>
-      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="8"/>
       <c r="F80" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="G80" t="s">
-        <v>215</v>
-      </c>
-      <c r="H80" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="H80" s="9">
+        <v>78</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
-      </c>
-      <c r="D81" s="10"/>
-      <c r="E81">
-        <v>5</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D81" s="12"/>
+      <c r="E81" s="3"/>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="G81" t="s">
-        <v>112</v>
-      </c>
-      <c r="H81" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="6">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>29</v>
+      <c r="B82" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F82" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="G82" t="s">
-        <v>218</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>260</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="6">
         <v>82</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>216</v>
+      <c r="B83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" s="10"/>
+      <c r="E83">
+        <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75">
+    <row r="84" spans="1:8">
       <c r="A84" s="6">
         <v>83</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>222</v>
-      </c>
+      <c r="B84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="8"/>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="G84" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="H84" s="2"/>
     </row>
@@ -3188,18 +3093,20 @@
       <c r="A85" s="6">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>36</v>
-      </c>
-      <c r="D85" s="10"/>
-      <c r="E85">
-        <v>3</v>
+      <c r="B85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="G85" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="H85" s="2"/>
     </row>
@@ -3207,101 +3114,97 @@
       <c r="A86" s="6">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H86" s="2"/>
+      <c r="B86" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F86" t="s">
+        <v>261</v>
+      </c>
+      <c r="G86" t="s">
+        <v>262</v>
+      </c>
+      <c r="H86" s="9"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="6">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="10"/>
-      <c r="E87">
-        <v>8</v>
+      <c r="B87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>223</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="G87" t="s">
-        <v>112</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="H87" s="9"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="6">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>225</v>
+        <v>36</v>
+      </c>
+      <c r="D88" s="10"/>
+      <c r="E88">
+        <v>3</v>
       </c>
       <c r="F88" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>227</v>
-      </c>
-      <c r="H88" s="2">
-        <v>83</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="6">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="8" t="s">
-        <v>225</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D89" s="13"/>
       <c r="F89" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G89" t="s">
-        <v>229</v>
-      </c>
-      <c r="H89" s="2">
-        <v>83</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="6">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>36</v>
-      </c>
-      <c r="D90" s="10"/>
-      <c r="E90">
-        <v>6</v>
+      <c r="B90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="G90" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H90" s="2"/>
     </row>
@@ -3310,33 +3213,38 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
-      </c>
-      <c r="D91" s="16"/>
+        <v>36</v>
+      </c>
+      <c r="D91" s="10"/>
+      <c r="E91">
+        <v>3</v>
+      </c>
       <c r="F91" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>260</v>
-      </c>
-      <c r="H91" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="6">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92">
-        <v>2</v>
+      <c r="B92" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H92" s="2"/>
     </row>
@@ -3345,22 +3253,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>231</v>
+        <v>9</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>148</v>
       </c>
       <c r="F93" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="G93" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="H93" s="2">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3368,45 +3276,38 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>231</v>
+        <v>9</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>217</v>
       </c>
       <c r="F94" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="G94" t="s">
-        <v>235</v>
-      </c>
-      <c r="H94" s="2">
-        <v>83</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="6">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
-      </c>
-      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="10"/>
+      <c r="E95">
         <v>6</v>
       </c>
-      <c r="D95" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E95" t="s">
-        <v>237</v>
-      </c>
       <c r="F95" t="s">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
       <c r="H95" s="2"/>
     </row>
@@ -3415,41 +3316,36 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>36</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="E96">
-        <v>2</v>
+        <v>225</v>
+      </c>
+      <c r="D96" s="13"/>
+      <c r="E96" t="s">
+        <v>224</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="G96" t="s">
-        <v>130</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="H96" s="9"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="6">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>54</v>
-      </c>
-      <c r="C97" t="s">
-        <v>6</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E97" t="s">
-        <v>241</v>
+        <v>36</v>
+      </c>
+      <c r="D97" s="10"/>
+      <c r="E97">
+        <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="H97" s="2"/>
     </row>
@@ -3458,832 +3354,34 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="10"/>
-      <c r="E98">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D98" s="13"/>
       <c r="F98" t="s">
-        <v>36</v>
-      </c>
-      <c r="G98" t="s">
-        <v>130</v>
-      </c>
-      <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="6">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>54</v>
-      </c>
-      <c r="C99" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="E99" t="s">
-        <v>245</v>
-      </c>
-      <c r="F99" t="s">
-        <v>246</v>
-      </c>
-      <c r="G99" t="s">
-        <v>247</v>
-      </c>
-      <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="6">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="10"/>
-      <c r="E100">
-        <v>2</v>
-      </c>
-      <c r="F100" t="s">
-        <v>36</v>
-      </c>
-      <c r="G100" t="s">
-        <v>130</v>
-      </c>
-      <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="6">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F101" t="s">
-        <v>249</v>
-      </c>
-      <c r="G101" t="s">
-        <v>250</v>
-      </c>
-      <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="6">
-        <v>101</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C102" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F102" t="s">
-        <v>251</v>
-      </c>
-      <c r="G102" t="s">
-        <v>252</v>
-      </c>
-      <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="6">
-        <v>102</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F103" t="s">
-        <v>254</v>
-      </c>
-      <c r="G103" t="s">
-        <v>255</v>
-      </c>
-      <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="6">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>36</v>
-      </c>
-      <c r="D104" s="10"/>
-      <c r="E104">
-        <v>3</v>
-      </c>
-      <c r="F104" t="s">
-        <v>36</v>
-      </c>
-      <c r="G104" t="s">
-        <v>112</v>
-      </c>
-      <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="6">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>29</v>
-      </c>
-      <c r="C105" t="s">
-        <v>31</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F105" t="s">
-        <v>232</v>
-      </c>
-      <c r="G105" t="s">
-        <v>257</v>
-      </c>
-      <c r="H105" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="6">
-        <v>105</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F106" t="s">
-        <v>148</v>
-      </c>
-      <c r="G106" t="s">
-        <v>149</v>
-      </c>
-      <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="6">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>111</v>
-      </c>
-      <c r="E107" t="s">
-        <v>299</v>
-      </c>
-      <c r="F107" t="s">
-        <v>298</v>
-      </c>
-      <c r="G107" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="6">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" s="10"/>
-      <c r="E108">
-        <v>7</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="G108" t="s">
-        <v>112</v>
-      </c>
-      <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="6">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>296</v>
-      </c>
-      <c r="D109" s="15"/>
-      <c r="F109" t="s">
-        <v>176</v>
-      </c>
-      <c r="G109" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="6">
-        <v>109</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="F110" t="s">
-        <v>294</v>
-      </c>
-      <c r="G110" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="6">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>36</v>
-      </c>
-      <c r="D111" s="10"/>
-      <c r="E111">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>36</v>
-      </c>
-      <c r="G111" t="s">
-        <v>112</v>
-      </c>
-      <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="6">
-        <v>111</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="F112" t="s">
-        <v>291</v>
-      </c>
-      <c r="G112" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="6">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>36</v>
-      </c>
-      <c r="D113" s="10"/>
-      <c r="E113">
-        <v>4</v>
-      </c>
-      <c r="F113" t="s">
-        <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>112</v>
-      </c>
-      <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="6">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>131</v>
-      </c>
-      <c r="C114" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F114" t="s">
-        <v>288</v>
-      </c>
-      <c r="G114" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="6">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>131</v>
-      </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F115" t="s">
-        <v>285</v>
-      </c>
-      <c r="G115" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="6">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>131</v>
-      </c>
-      <c r="C116" t="s">
-        <v>6</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F116" t="s">
-        <v>282</v>
-      </c>
-      <c r="G116" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="6">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>30</v>
-      </c>
-      <c r="C117" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="E117" t="s">
-        <v>279</v>
-      </c>
-      <c r="F117" t="s">
-        <v>278</v>
-      </c>
-      <c r="G117" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="6">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>36</v>
-      </c>
-      <c r="D118" s="10"/>
-      <c r="E118">
-        <v>3</v>
-      </c>
-      <c r="F118" t="s">
-        <v>36</v>
-      </c>
-      <c r="G118" t="s">
-        <v>112</v>
-      </c>
-      <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="6">
-        <v>118</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="F119" t="s">
-        <v>275</v>
-      </c>
-      <c r="G119" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="6">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="10"/>
-      <c r="E120">
-        <v>4</v>
-      </c>
-      <c r="F120" t="s">
-        <v>36</v>
-      </c>
-      <c r="G120" t="s">
-        <v>112</v>
-      </c>
-      <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="6">
-        <v>120</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="F121" t="s">
-        <v>275</v>
-      </c>
-      <c r="G121" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="6">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>36</v>
-      </c>
-      <c r="D122" s="10"/>
-      <c r="E122">
-        <v>5</v>
-      </c>
-      <c r="F122" t="s">
-        <v>36</v>
-      </c>
-      <c r="G122" t="s">
-        <v>112</v>
-      </c>
-      <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="6">
-        <v>122</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D123" s="12"/>
-      <c r="F123" t="s">
-        <v>169</v>
-      </c>
-      <c r="G123" t="s">
-        <v>170</v>
-      </c>
-      <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="6">
-        <v>123</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="F124" t="s">
-        <v>304</v>
-      </c>
-      <c r="G124" t="s">
-        <v>305</v>
-      </c>
-      <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="6">
-        <v>124</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>6</v>
-      </c>
-      <c r="D125" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="F125" t="s">
-        <v>306</v>
-      </c>
-      <c r="G125" t="s">
-        <v>307</v>
-      </c>
-      <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="6">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>36</v>
-      </c>
-      <c r="D126" s="10"/>
-      <c r="E126">
-        <v>4</v>
-      </c>
-      <c r="F126" t="s">
-        <v>36</v>
-      </c>
-      <c r="G126" t="s">
-        <v>112</v>
-      </c>
-      <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="6">
-        <v>126</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="F127" t="s">
-        <v>270</v>
-      </c>
-      <c r="G127" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="6">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>36</v>
-      </c>
-      <c r="D128" s="10"/>
-      <c r="E128">
-        <v>5</v>
-      </c>
-      <c r="F128" t="s">
-        <v>36</v>
-      </c>
-      <c r="G128" t="s">
-        <v>112</v>
-      </c>
-      <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="18">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>70</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="18">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>71</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="18">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C131" t="s">
-        <v>31</v>
-      </c>
-      <c r="D131" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="H131" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="18">
-        <v>131</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D132" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="18">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>34</v>
-      </c>
-      <c r="C133" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="18">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>34</v>
-      </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="18">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>34</v>
-      </c>
-      <c r="C135" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="H135" s="9"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="18">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>36</v>
-      </c>
-      <c r="D136" s="10"/>
-      <c r="E136">
-        <v>1</v>
-      </c>
-      <c r="F136" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" t="s">
-        <v>112</v>
-      </c>
-      <c r="H136" s="9"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="18">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>313</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="H137" s="9">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="18">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>313</v>
-      </c>
-      <c r="D138" s="15"/>
-      <c r="H138" s="9">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="18">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>313</v>
-      </c>
-      <c r="D139" s="8"/>
-      <c r="H139" s="9">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="18">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>37</v>
-      </c>
-      <c r="D140" s="14"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="19">
-        <v>13139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="18">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
-      </c>
-      <c r="D141" s="14"/>
-      <c r="H141" s="20">
-        <v>14140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="18">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>37</v>
-      </c>
-      <c r="D142" s="14"/>
-      <c r="H142" s="20">
-        <v>19141</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H98" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B143:B1048576">
-      <formula1>$C$2:$C$142</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B89 B96 B99:B1048576 B1">
+      <formula1>$C$2:$C$98</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B61 B86 B4:B7 B53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B7 B47 B98">
       <formula1>$C$2:$C$7</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -4322,8 +3420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
